--- a/我的创作/财务/证券投资/股票/SEAP交易系统/历史牛股档案库/历史牛股档案库.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/历史牛股档案库/历史牛股档案库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="10260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技术面" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>股票代码</t>
   </si>
@@ -348,6 +348,55 @@
 (越小越好)</t>
   </si>
   <si>
+    <t>平均净利润</t>
+  </si>
+  <si>
+    <t>上市日期
+(10年以内)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总股本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(以亿为单位，宜小为好)</t>
+    </r>
+  </si>
+  <si>
+    <t>流通股数量</t>
+  </si>
+  <si>
+    <t>市盈率</t>
+  </si>
+  <si>
+    <t>股价</t>
+  </si>
+  <si>
+    <t>成长性</t>
+  </si>
+  <si>
     <t>基本每股收益(同比增长率)(%)
 20210930</t>
   </si>
@@ -613,6 +662,24 @@
   </si>
   <si>
     <t>医药生物-化学制药-化学制剂</t>
+  </si>
+  <si>
+    <t>600188.SH</t>
+  </si>
+  <si>
+    <t>兖矿能源</t>
+  </si>
+  <si>
+    <t>煤炭-煤炭开采加工-煤炭开采</t>
+  </si>
+  <si>
+    <t>600085.SH</t>
+  </si>
+  <si>
+    <t>同仁堂</t>
+  </si>
+  <si>
+    <t>医药生物-中药-中药Ⅲ</t>
   </si>
 </sst>
 </file>
@@ -620,15 +687,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -660,6 +727,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -688,12 +767,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -706,10 +779,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -719,15 +824,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,22 +877,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -765,8 +885,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -783,80 +917,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,12 +933,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,25 +986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,13 +1004,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,19 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,49 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,31 +1124,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,8 +1217,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,45 +1303,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1255,285 +1316,351 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1864,7 +1991,7 @@
   <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1875,7 +2002,7 @@
   <cols>
     <col min="1" max="1" width="13.3928571428571" customWidth="1"/>
     <col min="2" max="2" width="11.1517857142857" customWidth="1"/>
-    <col min="4" max="5" width="9.14285714285714" style="17"/>
+    <col min="4" max="5" width="9.14285714285714" style="39"/>
     <col min="10" max="10" width="11.3035714285714" customWidth="1"/>
     <col min="14" max="14" width="11.0089285714286" customWidth="1"/>
     <col min="15" max="16" width="9.28571428571429"/>
@@ -1887,451 +2014,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="18" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18" t="s">
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="40" t="s">
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="41" t="s">
+      <c r="AQ1" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="34" t="s">
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="34" t="s">
+      <c r="AK2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="34" t="s">
+      <c r="AL2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="34" t="s">
+      <c r="AM2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="34" t="s">
+      <c r="AN2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AO2" s="34" t="s">
+      <c r="AO2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="63"/>
     </row>
     <row r="3" ht="71" spans="1:43">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="30" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="U3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="W3" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="30" t="s">
+      <c r="Y3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="30" t="s">
+      <c r="Z3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="30" t="s">
+      <c r="AA3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="32" t="s">
+      <c r="AC3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="32" t="s">
+      <c r="AD3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="32" t="s">
+      <c r="AE3" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="32" t="s">
+      <c r="AF3" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AG3" s="32" t="s">
+      <c r="AG3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="AH3" s="32" t="s">
+      <c r="AH3" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AI3" s="39" t="s">
+      <c r="AI3" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="63"/>
     </row>
     <row r="4" spans="1:43">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="43">
         <v>0.11</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="44">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="50">
         <v>13.84</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="50">
         <v>14.46</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="50">
         <v>16.41</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28">
+      <c r="I4" s="50"/>
+      <c r="J4" s="50">
         <v>16.65</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="50">
         <v>9.04</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="50">
         <v>18.59</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="50">
         <v>12.98</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="55">
         <f>(J4-K4)/K4</f>
         <v>0.841814159292035</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="55">
         <f>(L4-J4)/L4</f>
         <v>0.104357181280258</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="55">
         <f>(L4-M4)/M4</f>
         <v>0.432203389830508</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="50">
         <v>15</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="50">
         <v>17.65</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="50">
         <v>16.33</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="50">
         <v>17.84</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="50">
         <v>16.61</v>
       </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="35" t="s">
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="37">
+      <c r="AC4" s="59">
         <f>(L4-Q4)/L4</f>
         <v>0.193114577729962</v>
       </c>
-      <c r="AD4" s="37">
+      <c r="AD4" s="59">
         <f>(R4-S4)/R4</f>
         <v>0.0747875354107649</v>
       </c>
-      <c r="AE4" s="37">
+      <c r="AE4" s="59">
         <f>(T4-U4)/T4</f>
         <v>0.0689461883408072</v>
       </c>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35" t="s">
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="35" t="s">
+      <c r="AK4" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AL4" s="35" t="s">
+      <c r="AL4" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AM4" s="35" t="s">
+      <c r="AM4" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="43" t="s">
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="AQ4" s="44">
+      <c r="AQ4" s="66">
         <v>44599</v>
       </c>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="43">
         <v>0.54</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="45">
         <v>1</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="51">
         <v>19.82</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="51">
         <v>19.94</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="51">
         <v>20.55</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51">
         <v>21.53</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="51">
         <v>16.36</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="51">
         <v>22.38</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="51">
         <v>18.27</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="55">
         <f>(J5-K5)/K5</f>
         <v>0.316014669926651</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="55">
         <f>(L5-J5)/L5</f>
         <v>0.0379803395889186</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="55">
         <f>(L5-M5)/M5</f>
         <v>0.22495894909688</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="51">
         <v>19.62</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="51">
         <v>22.25</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="51">
         <v>20.58</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="35" t="s">
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="37">
+      <c r="AC5" s="59">
         <f>(L5-Q5)/L5</f>
         <v>0.123324396782842</v>
       </c>
-      <c r="AD5" s="37">
+      <c r="AD5" s="59">
         <f>(R5-S5)/R5</f>
         <v>0.075056179775281</v>
       </c>
-      <c r="AE5" s="37" t="e">
+      <c r="AE5" s="59" t="e">
         <f>(T5-U5)/T5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29" t="s">
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AK5" s="29" t="s">
+      <c r="AK5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AL5" s="29" t="s">
+      <c r="AL5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AM5" s="29" t="s">
+      <c r="AM5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="43" t="s">
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="AQ5" s="44">
+      <c r="AQ5" s="66">
         <v>44623</v>
       </c>
     </row>
@@ -2375,17 +2502,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:CO4"/>
+  <dimension ref="A1:CV6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CN11" sqref="CN11"/>
+      <selection pane="bottomRight" activeCell="CT3" sqref="CT3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="10.7053571428571" customWidth="1"/>
     <col min="2" max="2" width="10.5625" customWidth="1"/>
@@ -2419,1020 +2546,1749 @@
     <col min="64" max="64" width="22.6160714285714" customWidth="1"/>
     <col min="65" max="65" width="11.0089285714286" customWidth="1"/>
     <col min="66" max="66" width="18" customWidth="1"/>
+    <col min="94" max="94" width="12.7857142857143"/>
+    <col min="95" max="95" width="21" style="1" customWidth="1"/>
+    <col min="96" max="97" width="9.14285714285714" style="1"/>
+    <col min="98" max="98" width="9.14285714285714" style="2"/>
+    <col min="99" max="99" width="9.14285714285714" style="1"/>
+    <col min="100" max="100" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:100">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1" t="s">
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="6" t="s">
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BM1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BN1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6" t="s">
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="12"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BV1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BW1" s="10" t="s">
+      <c r="BW1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="BX1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10" t="s">
+      <c r="BY1" s="19"/>
+      <c r="BZ1" s="19"/>
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="19"/>
+      <c r="CC1" s="19"/>
+      <c r="CD1" s="19"/>
+      <c r="CE1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="CF1" s="13" t="s">
+      <c r="CF1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="CG1" s="13" t="s">
+      <c r="CG1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CH1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13" t="s">
+      <c r="CI1" s="23"/>
+      <c r="CJ1" s="23"/>
+      <c r="CK1" s="23"/>
+      <c r="CL1" s="23"/>
+      <c r="CM1" s="23"/>
+      <c r="CN1" s="23"/>
+      <c r="CO1" s="23" t="s">
         <v>68</v>
       </c>
+      <c r="CP1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="CQ1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="CR1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="CS1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="CT1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="CU1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV1" s="36" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:93">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="1" t="s">
+    <row r="2" ht="55" spans="1:100">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Q2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="S2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="T2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="U2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="V2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="W2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="X2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="Y2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="Z2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AA2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AB2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AC2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AD2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AE2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AF2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AG2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AH2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AI2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AK2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AL2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AM2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AN2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AO2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AP2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AR2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AS2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="AT2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="AU2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="AV2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="AW2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="AX2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="AY2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BA2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BB2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BC2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BD2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="8" t="s">
+      <c r="BE2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BF2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BG2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BH2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BI2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BS2" s="8" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BT2" s="8" t="s">
+      <c r="BK2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="10"/>
-      <c r="BW2" s="10"/>
-      <c r="BX2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BY2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="BZ2" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="CA2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="CB2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="CC2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="CD2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="CE2" s="10"/>
-      <c r="CF2" s="13"/>
-      <c r="CG2" s="13"/>
-      <c r="CH2" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="CI2" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="CJ2" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="CK2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="CL2" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="CM2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="CN2" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="CO2" s="13"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BS2" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="19"/>
+      <c r="BX2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="CB2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC2" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE2" s="19"/>
+      <c r="CF2" s="23"/>
+      <c r="CG2" s="23"/>
+      <c r="CH2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="CI2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="CJ2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="CK2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="CL2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="CM2" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="CN2" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO2" s="23"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="29"/>
+      <c r="CR2" s="30"/>
+      <c r="CS2" s="30"/>
+      <c r="CT2" s="36"/>
+      <c r="CU2" s="29"/>
+      <c r="CV2" s="36"/>
     </row>
-    <row r="3" spans="1:93">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:100">
+      <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="7">
         <v>356.796116504854</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>160</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>80.4812834224599</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>-400</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>-147.795823665893</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>-183.333333333333</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>-500</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>-33.3333333333333</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>4.86618004866181</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>50</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="6">
         <v>-66.6666666666667</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="6">
         <v>-50</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="6">
         <v>-63.5476718403548</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="6">
         <v>-69.2307692307692</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="6">
         <v>-50</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="6">
         <v>-33.3333333333333</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="6">
         <v>-13.135593220339</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="6">
         <v>-45.8333333333333</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="6">
         <v>-14.2857142857143</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="6">
         <v>-44.8979591836735</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="10">
         <v>26.00468613</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="10">
         <v>7.71422185</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="10">
         <v>20.1438819</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="6">
         <v>-5.79008939</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="6">
         <v>-12.65279049</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="6">
         <v>-13.48338976</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="6">
         <v>-18.96172835</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="6">
         <v>4.28764402</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AF3" s="6">
         <v>6.3802174</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="6">
         <v>-0.23976539</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AH3" s="6">
         <v>6.90573567</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="6">
         <v>-10.39436955</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="6">
         <v>-11.8910383</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="6">
         <v>-10.34734022</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="6">
         <v>-16.32077147</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="6">
         <v>4.11078387</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AN3" s="6">
         <v>0.83284647</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="6">
         <v>5.08261861</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="6">
         <v>-5.4712796</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="6">
         <v>-3.20300678</v>
       </c>
-      <c r="AR3" s="4">
+      <c r="AR3" s="7">
         <v>3.6991</v>
       </c>
-      <c r="AS3" s="4">
+      <c r="AS3" s="7">
         <v>1.6007</v>
       </c>
-      <c r="AT3" s="4">
+      <c r="AT3" s="7">
         <v>-0.873</v>
       </c>
-      <c r="AU3" s="3">
+      <c r="AU3" s="6">
         <v>-6.1234</v>
       </c>
-      <c r="AV3" s="3">
+      <c r="AV3" s="6">
         <v>-1.9277</v>
       </c>
-      <c r="AW3" s="3">
+      <c r="AW3" s="6">
         <v>-3.4616</v>
       </c>
-      <c r="AX3" s="3">
+      <c r="AX3" s="6">
         <v>-7.0801</v>
       </c>
-      <c r="AY3" s="3">
+      <c r="AY3" s="6">
         <v>1.968</v>
       </c>
-      <c r="AZ3" s="3">
+      <c r="AZ3" s="6">
         <v>3.7963</v>
       </c>
-      <c r="BA3" s="3">
+      <c r="BA3" s="6">
         <v>3.7801</v>
       </c>
-      <c r="BB3" s="3">
+      <c r="BB3" s="6">
         <v>1.0208</v>
       </c>
-      <c r="BC3" s="3">
+      <c r="BC3" s="6">
         <v>2.8303</v>
       </c>
-      <c r="BD3" s="3">
+      <c r="BD3" s="6">
         <v>3.5486</v>
       </c>
-      <c r="BE3" s="3">
+      <c r="BE3" s="6">
         <v>2.7305</v>
       </c>
-      <c r="BF3" s="3">
+      <c r="BF3" s="6">
         <v>4.1101</v>
       </c>
-      <c r="BG3" s="3">
+      <c r="BG3" s="6">
         <v>5.3741</v>
       </c>
-      <c r="BH3" s="3">
+      <c r="BH3" s="6">
         <v>8.6456</v>
       </c>
-      <c r="BI3" s="3">
+      <c r="BI3" s="6">
         <v>7.7675</v>
       </c>
-      <c r="BJ3" s="3">
+      <c r="BJ3" s="6">
         <v>6.4827</v>
       </c>
-      <c r="BK3" s="3">
+      <c r="BK3" s="6">
         <v>8.6142</v>
       </c>
-      <c r="BL3" s="7">
-        <f>(D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3)/12</f>
+      <c r="BL3" s="13">
+        <f t="shared" ref="BL3:BL6" si="0">(D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3)/12</f>
         <v>-60.7487980852709</v>
       </c>
-      <c r="BM3" s="7">
-        <f>(D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3+W3)/20</f>
+      <c r="BM3" s="13">
+        <f t="shared" ref="BM3:BM6" si="1">(D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3+W3)/20</f>
         <v>-53.1624975725384</v>
       </c>
-      <c r="BN3" s="9">
-        <f t="shared" ref="BN3:BT3" si="0">(D3+E3)/2</f>
+      <c r="BN3" s="17">
+        <f t="shared" ref="BN3:BT3" si="2">(D3+E3)/2</f>
         <v>258.398058252427</v>
       </c>
-      <c r="BO3" s="9">
+      <c r="BO3" s="17">
+        <f t="shared" si="2"/>
+        <v>120.24064171123</v>
+      </c>
+      <c r="BP3" s="17">
+        <f t="shared" si="2"/>
+        <v>-159.75935828877</v>
+      </c>
+      <c r="BQ3" s="13">
+        <f t="shared" si="2"/>
+        <v>-273.897911832947</v>
+      </c>
+      <c r="BR3" s="13">
+        <f t="shared" si="2"/>
+        <v>-165.564578499613</v>
+      </c>
+      <c r="BS3" s="13">
+        <f t="shared" si="2"/>
+        <v>-341.666666666667</v>
+      </c>
+      <c r="BT3" s="13">
+        <f t="shared" si="2"/>
+        <v>-266.666666666667</v>
+      </c>
+      <c r="BU3" s="13">
+        <f t="shared" ref="BU3:BU6" si="3">STDEV(D3:W3)</f>
+        <v>177.085334526103</v>
+      </c>
+      <c r="BV3" s="20">
+        <f t="shared" ref="BV3:BV6" si="4">(X3+Y3+Z3+AA3+AB3+AC3+AD3+AE3+AF3+AG3+AH3+AI3)/12</f>
+        <v>0.826187836666666</v>
+      </c>
+      <c r="BW3" s="20">
+        <f t="shared" ref="BW3:BW6" si="5">(X3+Y3+Z3+AA3+AB3+AC3+AD3+AE3+AF3+AG3+AH3+AI3+AJ3+AK3+AL3+AM3+AN3+AO3+AP3+AQ3)/20</f>
+        <v>-1.364646669</v>
+      </c>
+      <c r="BX3" s="21">
+        <f t="shared" ref="BX3:CD3" si="6">(X3+Y3)/2</f>
+        <v>16.85945399</v>
+      </c>
+      <c r="BY3" s="21">
+        <f t="shared" si="6"/>
+        <v>13.929051875</v>
+      </c>
+      <c r="BZ3" s="21">
+        <f t="shared" si="6"/>
+        <v>7.176896255</v>
+      </c>
+      <c r="CA3" s="21">
+        <f t="shared" si="6"/>
+        <v>-9.22143994</v>
+      </c>
+      <c r="CB3" s="21">
+        <f t="shared" si="6"/>
+        <v>-13.068090125</v>
+      </c>
+      <c r="CC3" s="20">
+        <f t="shared" si="6"/>
+        <v>-16.222559055</v>
+      </c>
+      <c r="CD3" s="20">
+        <f t="shared" si="6"/>
+        <v>-7.337042165</v>
+      </c>
+      <c r="CE3" s="20">
+        <f t="shared" ref="CE3:CE6" si="7">STDEV(X3:AQ3)</f>
+        <v>11.8156512879502</v>
+      </c>
+      <c r="CF3" s="24">
+        <f t="shared" ref="CF3:CF6" si="8">(AR3+AS3+AT3+AU3+AV3+AW3+AX3+AY3+AZ3+BA3+BB3+BC3)/12</f>
+        <v>-0.0642083333333334</v>
+      </c>
+      <c r="CG3" s="24">
+        <f t="shared" ref="CG3:CG6" si="9">(AR3+AS3+AT3+AU3+AV3+AW3+AX3+AY3+AZ3+BA3+BB3+BC3+BD3+BE3+BF3+BG3+BH3+BI3+BJ3+BK3)/20</f>
+        <v>2.32514</v>
+      </c>
+      <c r="CH3" s="27">
+        <f t="shared" ref="CH3:CN3" si="10">(AR3+AS3)/2</f>
+        <v>2.6499</v>
+      </c>
+      <c r="CI3" s="27">
+        <f t="shared" si="10"/>
+        <v>0.36385</v>
+      </c>
+      <c r="CJ3" s="27">
+        <f t="shared" si="10"/>
+        <v>-3.4982</v>
+      </c>
+      <c r="CK3" s="24">
+        <f t="shared" si="10"/>
+        <v>-4.02555</v>
+      </c>
+      <c r="CL3" s="24">
+        <f t="shared" si="10"/>
+        <v>-2.69465</v>
+      </c>
+      <c r="CM3" s="24">
+        <f t="shared" si="10"/>
+        <v>-5.27085</v>
+      </c>
+      <c r="CN3" s="24">
+        <f t="shared" si="10"/>
+        <v>-2.55605</v>
+      </c>
+      <c r="CO3" s="24">
+        <f t="shared" ref="CO3:CO6" si="11">STDEV(AR3:BK3)</f>
+        <v>4.41864352445527</v>
+      </c>
+      <c r="CP3" s="31">
+        <f>(BN3+BO3+BP3)/3</f>
+        <v>72.9597805582957</v>
+      </c>
+      <c r="CQ3" s="32">
+        <v>42347</v>
+      </c>
+      <c r="CR3" s="29">
+        <v>1.32</v>
+      </c>
+      <c r="CS3" s="29">
+        <v>1.184</v>
+      </c>
+      <c r="CT3" s="37">
+        <v>-460.05</v>
+      </c>
+      <c r="CU3" s="29">
+        <v>17.9</v>
+      </c>
+      <c r="CV3" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:100">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25.5813953488372</v>
+      </c>
+      <c r="E4" s="7">
+        <v>9.67741935483872</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5.26315789473685</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-95.1456310679612</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-41.8918918918919</v>
+      </c>
+      <c r="I4" s="6">
+        <v>-36.734693877551</v>
+      </c>
+      <c r="J4" s="6">
+        <v>-20.8333333333333</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.98019801980198</v>
+      </c>
+      <c r="L4" s="6">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="M4" s="6">
+        <v>28.9473684210526</v>
+      </c>
+      <c r="N4" s="6">
+        <v>9.09090909090909</v>
+      </c>
+      <c r="O4" s="6">
+        <v>57.8125</v>
+      </c>
+      <c r="P4" s="6">
+        <v>5.45454545454544</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>-11.6279069767442</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1.58730158730159</v>
+      </c>
+      <c r="T4" s="6">
+        <v>27.9069767441861</v>
+      </c>
+      <c r="U4" s="6">
+        <v>13.1578947368421</v>
+      </c>
+      <c r="V4" s="6">
+        <v>-4.34782608695653</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>-9.41938284</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>-16.47882232</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>-24.18796139</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>-33.15519885</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>-32.00135762</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>-22.6267221</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>-13.94744326</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>16.24827513</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>23.25973607</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>20.6307938</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>30.36320644</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>47.31065073</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>32.18010203</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>37.66251696</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>52.46915648</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>21.29662605</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>26.88940363</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>28.92037932</v>
+      </c>
+      <c r="AP4" s="6">
+        <v>3.69050993</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>5.2653963</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>11.6934</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>10.429</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>11.0054</v>
+      </c>
+      <c r="AU4" s="6">
+        <v>0.7552</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>8.6483</v>
+      </c>
+      <c r="AW4" s="6">
+        <v>9.215</v>
+      </c>
+      <c r="AX4" s="6">
+        <v>10.2959</v>
+      </c>
+      <c r="AY4" s="6">
+        <v>11.6474</v>
+      </c>
+      <c r="AZ4" s="6">
+        <v>11.1445</v>
+      </c>
+      <c r="BA4" s="6">
+        <v>10.3922</v>
+      </c>
+      <c r="BB4" s="6">
+        <v>10.2257</v>
+      </c>
+      <c r="BC4" s="6">
+        <v>12.3023</v>
+      </c>
+      <c r="BD4" s="6">
+        <v>9.541</v>
+      </c>
+      <c r="BE4" s="6">
+        <v>8.9404</v>
+      </c>
+      <c r="BF4" s="6">
+        <v>10.3925</v>
+      </c>
+      <c r="BG4" s="6">
+        <v>11.3477</v>
+      </c>
+      <c r="BH4" s="6">
+        <v>13.0956</v>
+      </c>
+      <c r="BI4" s="6">
+        <v>14.9172</v>
+      </c>
+      <c r="BJ4" s="6">
+        <v>14.2846</v>
+      </c>
+      <c r="BK4" s="6">
+        <v>13.6513</v>
+      </c>
+      <c r="BL4" s="13">
         <f t="shared" si="0"/>
-        <v>120.24064171123</v>
-      </c>
-      <c r="BP3" s="9">
+        <v>-2.38886626200077</v>
+      </c>
+      <c r="BM4" s="13">
+        <f t="shared" si="1"/>
+        <v>0.173229515758261</v>
+      </c>
+      <c r="BN4" s="17">
+        <f t="shared" ref="BN4:BT4" si="12">(D4+E4)/2</f>
+        <v>17.629407351838</v>
+      </c>
+      <c r="BO4" s="17">
+        <f t="shared" si="12"/>
+        <v>7.47028862478778</v>
+      </c>
+      <c r="BP4" s="17">
+        <f t="shared" si="12"/>
+        <v>-44.9412365866122</v>
+      </c>
+      <c r="BQ4" s="13">
+        <f t="shared" si="12"/>
+        <v>-68.5187614799265</v>
+      </c>
+      <c r="BR4" s="13">
+        <f t="shared" si="12"/>
+        <v>-39.3132928847215</v>
+      </c>
+      <c r="BS4" s="13">
+        <f t="shared" si="12"/>
+        <v>-28.7840136054422</v>
+      </c>
+      <c r="BT4" s="13">
+        <f t="shared" si="12"/>
+        <v>-9.42656765676567</v>
+      </c>
+      <c r="BU4" s="13">
+        <f t="shared" si="3"/>
+        <v>32.062735373037</v>
+      </c>
+      <c r="BV4" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.16701885083333</v>
+      </c>
+      <c r="BW4" s="20">
+        <f t="shared" si="5"/>
+        <v>9.7184932245</v>
+      </c>
+      <c r="BX4" s="21">
+        <f t="shared" ref="BX4:CD4" si="13">(X4+Y4)/2</f>
+        <v>-12.94910258</v>
+      </c>
+      <c r="BY4" s="21">
+        <f t="shared" si="13"/>
+        <v>-20.333391855</v>
+      </c>
+      <c r="BZ4" s="21">
+        <f t="shared" si="13"/>
+        <v>-28.67158012</v>
+      </c>
+      <c r="CA4" s="20">
+        <f t="shared" si="13"/>
+        <v>-32.578278235</v>
+      </c>
+      <c r="CB4" s="20">
+        <f t="shared" si="13"/>
+        <v>-27.31403986</v>
+      </c>
+      <c r="CC4" s="20">
+        <f t="shared" si="13"/>
+        <v>-18.28708268</v>
+      </c>
+      <c r="CD4" s="20">
+        <f t="shared" si="13"/>
+        <v>1.150415935</v>
+      </c>
+      <c r="CE4" s="20">
+        <f t="shared" si="7"/>
+        <v>26.6936167118331</v>
+      </c>
+      <c r="CF4" s="24">
+        <f t="shared" si="8"/>
+        <v>9.81285833333333</v>
+      </c>
+      <c r="CG4" s="24">
+        <f t="shared" si="9"/>
+        <v>10.69623</v>
+      </c>
+      <c r="CH4" s="27">
+        <f t="shared" ref="CH4:CN4" si="14">(AR4+AS4)/2</f>
+        <v>11.0612</v>
+      </c>
+      <c r="CI4" s="27">
+        <f t="shared" si="14"/>
+        <v>10.7172</v>
+      </c>
+      <c r="CJ4" s="27">
+        <f t="shared" si="14"/>
+        <v>5.8803</v>
+      </c>
+      <c r="CK4" s="24">
+        <f t="shared" si="14"/>
+        <v>4.70175</v>
+      </c>
+      <c r="CL4" s="24">
+        <f t="shared" si="14"/>
+        <v>8.93165</v>
+      </c>
+      <c r="CM4" s="24">
+        <f t="shared" si="14"/>
+        <v>9.75545</v>
+      </c>
+      <c r="CN4" s="24">
+        <f t="shared" si="14"/>
+        <v>10.97165</v>
+      </c>
+      <c r="CO4" s="24">
+        <f t="shared" si="11"/>
+        <v>2.90778694635085</v>
+      </c>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="33"/>
+      <c r="CR4" s="29"/>
+      <c r="CS4" s="29"/>
+      <c r="CT4" s="36"/>
+      <c r="CU4" s="29"/>
+      <c r="CV4" s="36"/>
+    </row>
+    <row r="5" spans="1:100">
+      <c r="A5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="9">
+        <v>196.369922212619</v>
+      </c>
+      <c r="E5" s="9">
+        <v>128.925903077661</v>
+      </c>
+      <c r="F5" s="9">
+        <v>66.4378283712785</v>
+      </c>
+      <c r="G5" s="8">
+        <v>14.8264401772526</v>
+      </c>
+      <c r="H5" s="8">
+        <v>31.4772727272727</v>
+      </c>
+      <c r="I5" s="8">
+        <v>-27.7486133122029</v>
+      </c>
+      <c r="J5" s="8">
+        <v>-18.131945421297</v>
+      </c>
+      <c r="K5" s="8">
+        <v>-14.0461792193513</v>
+      </c>
+      <c r="L5" s="8">
+        <v>-33.8157054692488</v>
+      </c>
+      <c r="M5" s="8">
+        <v>9.59567728712501</v>
+      </c>
+      <c r="N5" s="8">
+        <v>26.8897813476127</v>
+      </c>
+      <c r="O5" s="8">
+        <v>23.489477257298</v>
+      </c>
+      <c r="P5" s="8">
+        <v>3.61631753031973</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>16.8093441671503</v>
+      </c>
+      <c r="R5" s="8">
+        <v>13.3650343990287</v>
+      </c>
+      <c r="S5" s="8">
+        <v>34.0919435593992</v>
+      </c>
+      <c r="T5" s="8">
+        <v>25.4842280022136</v>
+      </c>
+      <c r="U5" s="8">
+        <v>213.201545103386</v>
+      </c>
+      <c r="V5" s="8">
+        <v>369.980694980695</v>
+      </c>
+      <c r="W5" s="8">
+        <v>438.838174273859</v>
+      </c>
+      <c r="X5" s="11">
+        <v>36.62801479</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>-35.27399073</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>-3.26575669</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>-50.26838542</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>-38.9247476</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>-0.35512604</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>-18.76657822</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>3.45169068</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>-13.95465145</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>24.16425531</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>27.79774194</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>40.3607067</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>39.92961458</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>3.01935059</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>0.78398867</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>-11.79588231</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>-13.60094414</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>50.72285548</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>82.26505074</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>248.78602618</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>19.7861</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>12.2157</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>12.3657</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>9.7616</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>7.2807</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>3.1804</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>4.8212</v>
+      </c>
+      <c r="AY5" s="8">
+        <v>5.8216</v>
+      </c>
+      <c r="AZ5" s="8">
+        <v>4.0809</v>
+      </c>
+      <c r="BA5" s="8">
+        <v>5.5369</v>
+      </c>
+      <c r="BB5" s="8">
+        <v>5.9685</v>
+      </c>
+      <c r="BC5" s="8">
+        <v>6.6431</v>
+      </c>
+      <c r="BD5" s="8">
+        <v>6.2546</v>
+      </c>
+      <c r="BE5" s="8">
+        <v>6.537</v>
+      </c>
+      <c r="BF5" s="8">
+        <v>6.295</v>
+      </c>
+      <c r="BG5" s="8">
+        <v>7.4274</v>
+      </c>
+      <c r="BH5" s="8">
+        <v>8.4959</v>
+      </c>
+      <c r="BI5" s="8">
+        <v>5.1987</v>
+      </c>
+      <c r="BJ5" s="8">
+        <v>4.6515</v>
+      </c>
+      <c r="BK5" s="8">
+        <v>4.5238</v>
+      </c>
+      <c r="BL5" s="14">
         <f t="shared" si="0"/>
-        <v>-159.75935828877</v>
-      </c>
-      <c r="BQ3" s="7">
+        <v>33.6891549196683</v>
+      </c>
+      <c r="BM5" s="14">
+        <f t="shared" si="1"/>
+        <v>75.9828570526035</v>
+      </c>
+      <c r="BN5" s="18">
+        <f t="shared" ref="BN5:BT5" si="15">(D5+E5)/2</f>
+        <v>162.64791264514</v>
+      </c>
+      <c r="BO5" s="18">
+        <f t="shared" si="15"/>
+        <v>97.6818657244698</v>
+      </c>
+      <c r="BP5" s="18">
+        <f t="shared" si="15"/>
+        <v>40.6321342742655</v>
+      </c>
+      <c r="BQ5" s="18">
+        <f t="shared" si="15"/>
+        <v>23.1518564522627</v>
+      </c>
+      <c r="BR5" s="18">
+        <f t="shared" si="15"/>
+        <v>1.86432970753494</v>
+      </c>
+      <c r="BS5" s="14">
+        <f t="shared" si="15"/>
+        <v>-22.9402793667499</v>
+      </c>
+      <c r="BT5" s="14">
+        <f t="shared" si="15"/>
+        <v>-16.0890623203241</v>
+      </c>
+      <c r="BU5" s="14">
+        <f t="shared" si="3"/>
+        <v>131.05879208918</v>
+      </c>
+      <c r="BV5" s="14">
+        <f t="shared" si="4"/>
+        <v>-2.36723556083333</v>
+      </c>
+      <c r="BW5" s="14">
+        <f t="shared" si="5"/>
+        <v>18.585161653</v>
+      </c>
+      <c r="BX5" s="18">
+        <f t="shared" ref="BX5:CD5" si="16">(X5+Y5)/2</f>
+        <v>0.67701203</v>
+      </c>
+      <c r="BY5" s="18">
+        <f t="shared" si="16"/>
+        <v>-19.26987371</v>
+      </c>
+      <c r="BZ5" s="18">
+        <f t="shared" si="16"/>
+        <v>-26.767071055</v>
+      </c>
+      <c r="CA5" s="14">
+        <f t="shared" si="16"/>
+        <v>-44.59656651</v>
+      </c>
+      <c r="CB5" s="14">
+        <f t="shared" si="16"/>
+        <v>-19.63993682</v>
+      </c>
+      <c r="CC5" s="14">
+        <f t="shared" si="16"/>
+        <v>-9.56085213</v>
+      </c>
+      <c r="CD5" s="14">
+        <f t="shared" si="16"/>
+        <v>-7.65744377</v>
+      </c>
+      <c r="CE5" s="14">
+        <f t="shared" si="7"/>
+        <v>63.4275589812044</v>
+      </c>
+      <c r="CF5" s="14">
+        <f t="shared" si="8"/>
+        <v>8.12186666666667</v>
+      </c>
+      <c r="CG5" s="14">
+        <f t="shared" si="9"/>
+        <v>7.342315</v>
+      </c>
+      <c r="CH5" s="18">
+        <f t="shared" ref="CH5:CN5" si="17">(AR5+AS5)/2</f>
+        <v>16.0009</v>
+      </c>
+      <c r="CI5" s="18">
+        <f t="shared" si="17"/>
+        <v>12.2907</v>
+      </c>
+      <c r="CJ5" s="18">
+        <f t="shared" si="17"/>
+        <v>11.06365</v>
+      </c>
+      <c r="CK5" s="18">
+        <f t="shared" si="17"/>
+        <v>8.52115</v>
+      </c>
+      <c r="CL5" s="18">
+        <f t="shared" si="17"/>
+        <v>5.23055</v>
+      </c>
+      <c r="CM5" s="14">
+        <f t="shared" si="17"/>
+        <v>4.0008</v>
+      </c>
+      <c r="CN5" s="14">
+        <f t="shared" si="17"/>
+        <v>5.3214</v>
+      </c>
+      <c r="CO5" s="14">
+        <f t="shared" si="11"/>
+        <v>3.81132434232443</v>
+      </c>
+      <c r="CP5" s="31">
+        <f>(BN5+BO5+BP5)/3</f>
+        <v>100.320637547958</v>
+      </c>
+      <c r="CQ5" s="34">
+        <v>35977</v>
+      </c>
+      <c r="CR5" s="14">
+        <v>49.49</v>
+      </c>
+      <c r="CS5" s="14">
+        <v>29.87</v>
+      </c>
+      <c r="CT5" s="36">
+        <v>8.61</v>
+      </c>
+      <c r="CU5" s="29">
+        <v>36.67</v>
+      </c>
+      <c r="CV5" s="38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100">
+      <c r="A6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="8">
+        <v>28.7907869481766</v>
+      </c>
+      <c r="E6" s="8">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4.58970792767733</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-15.9677419354839</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-27.3858921161826</v>
+      </c>
+      <c r="J6" s="8">
+        <v>-31.7647058823529</v>
+      </c>
+      <c r="K6" s="8">
+        <v>-13.0592503022975</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>3.43347639484978</v>
+      </c>
+      <c r="N6" s="8">
+        <v>10.3896103896104</v>
+      </c>
+      <c r="O6" s="8">
+        <v>11.455525606469</v>
+      </c>
+      <c r="P6" s="8">
+        <v>3.85259631490788</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>6.63615560640733</v>
+      </c>
+      <c r="R6" s="8">
+        <v>7.94392523364487</v>
+      </c>
+      <c r="S6" s="8">
+        <v>9.11764705882352</v>
+      </c>
+      <c r="T6" s="8">
+        <v>7.95660036166364</v>
+      </c>
+      <c r="U6" s="8">
+        <v>6.32603406326035</v>
+      </c>
+      <c r="V6" s="8">
+        <v>12.0418848167539</v>
+      </c>
+      <c r="W6" s="8">
+        <v>5.42635658914729</v>
+      </c>
+      <c r="X6" s="8">
+        <v>11.25125505</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>15.60368788</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>21.43097686</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0.72886109</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>-2.27130467</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>-0.84639089</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>-2.22042121</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>-4.4937203</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>-2.48642113</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>-0.78234573</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>-1.56921845</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>11.53143047</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>10.13950304</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>7.95836452</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>7.99639881</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>12.15788518</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>11.82899663</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>7.40469696</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>3.35208954</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>18.49003198</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>13.1401</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>13.4557</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>13.1424</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>12.6024</v>
+      </c>
+      <c r="AV6" s="8">
+        <v>12.4698</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>12.3356</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>11.8187</v>
+      </c>
+      <c r="AY6" s="8">
+        <v>11.7616</v>
+      </c>
+      <c r="AZ6" s="8">
+        <v>13.9375</v>
+      </c>
+      <c r="BA6" s="8">
+        <v>15.0708</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>14.527</v>
+      </c>
+      <c r="BC6" s="8">
+        <v>12.8269</v>
+      </c>
+      <c r="BD6" s="8">
+        <v>13.8261</v>
+      </c>
+      <c r="BE6" s="8">
+        <v>14.8093</v>
+      </c>
+      <c r="BF6" s="8">
+        <v>14.6887</v>
+      </c>
+      <c r="BG6" s="8">
+        <v>13.0212</v>
+      </c>
+      <c r="BH6" s="8">
+        <v>14.2339</v>
+      </c>
+      <c r="BI6" s="8">
+        <v>14.6184</v>
+      </c>
+      <c r="BJ6" s="8">
+        <v>13.6583</v>
+      </c>
+      <c r="BK6" s="8">
+        <v>12.9205</v>
+      </c>
+      <c r="BL6" s="15">
         <f t="shared" si="0"/>
-        <v>-273.897911832947</v>
-      </c>
-      <c r="BR3" s="7">
-        <f t="shared" si="0"/>
-        <v>-165.564578499613</v>
-      </c>
-      <c r="BS3" s="7">
-        <f t="shared" si="0"/>
-        <v>-341.666666666667</v>
-      </c>
-      <c r="BT3" s="7">
-        <f t="shared" si="0"/>
-        <v>-266.666666666667</v>
-      </c>
-      <c r="BU3" s="7">
-        <f>STDEV(D3:W3)</f>
-        <v>177.085334526103</v>
-      </c>
-      <c r="BV3" s="11">
-        <f>(X3+Y3+Z3+AA3+AB3+AC3+AD3+AE3+AF3+AG3+AH3+AI3)/12</f>
-        <v>0.826187836666666</v>
-      </c>
-      <c r="BW3" s="11">
-        <f>(X3+Y3+Z3+AA3+AB3+AC3+AD3+AE3+AF3+AG3+AH3+AI3+AJ3+AK3+AL3+AM3+AN3+AO3+AP3+AQ3)/20</f>
-        <v>-1.364646669</v>
-      </c>
-      <c r="BX3" s="12">
-        <f t="shared" ref="BX3:CD3" si="1">(X3+Y3)/2</f>
-        <v>16.85945399</v>
-      </c>
-      <c r="BY3" s="12">
+        <v>2.8179041969833</v>
+      </c>
+      <c r="BM6" s="15">
         <f t="shared" si="1"/>
-        <v>13.929051875</v>
-      </c>
-      <c r="BZ3" s="12">
-        <f t="shared" si="1"/>
-        <v>7.176896255</v>
-      </c>
-      <c r="CA3" s="12">
-        <f t="shared" si="1"/>
-        <v>-9.22143994</v>
-      </c>
-      <c r="CB3" s="12">
-        <f t="shared" si="1"/>
-        <v>-13.068090125</v>
-      </c>
-      <c r="CC3" s="11">
-        <f t="shared" si="1"/>
-        <v>-16.222559055</v>
-      </c>
-      <c r="CD3" s="11">
-        <f t="shared" si="1"/>
-        <v>-7.337042165</v>
-      </c>
-      <c r="CE3" s="11">
-        <f>STDEV(X3:AQ3)</f>
-        <v>11.8156512879502</v>
-      </c>
-      <c r="CF3" s="14">
-        <f>(AR3+AS3+AT3+AU3+AV3+AW3+AX3+AY3+AZ3+BA3+BB3+BC3)/12</f>
-        <v>-0.0642083333333334</v>
-      </c>
-      <c r="CG3" s="14">
-        <f>(AR3+AS3+AT3+AU3+AV3+AW3+AX3+AY3+AZ3+BA3+BB3+BC3+BD3+BE3+BF3+BG3+BH3+BI3+BJ3+BK3)/20</f>
-        <v>2.32514</v>
-      </c>
-      <c r="CH3" s="16">
-        <f t="shared" ref="CH3:CN3" si="2">(AR3+AS3)/2</f>
-        <v>2.6499</v>
-      </c>
-      <c r="CI3" s="16">
-        <f t="shared" si="2"/>
-        <v>0.36385</v>
-      </c>
-      <c r="CJ3" s="16">
-        <f t="shared" si="2"/>
-        <v>-3.4982</v>
-      </c>
-      <c r="CK3" s="14">
-        <f t="shared" si="2"/>
-        <v>-4.02555</v>
-      </c>
-      <c r="CL3" s="14">
-        <f t="shared" si="2"/>
-        <v>-2.69465</v>
-      </c>
-      <c r="CM3" s="14">
-        <f t="shared" si="2"/>
-        <v>-5.27085</v>
-      </c>
-      <c r="CN3" s="14">
-        <f t="shared" si="2"/>
-        <v>-2.55605</v>
-      </c>
-      <c r="CO3" s="14">
-        <f>STDEV(AR3:BK3)</f>
-        <v>4.41864352445527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:93">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="4">
-        <v>25.5813953488372</v>
-      </c>
-      <c r="E4" s="4">
-        <v>9.67741935483872</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5.26315789473685</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-95.1456310679612</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-41.8918918918919</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-36.734693877551</v>
-      </c>
-      <c r="J4" s="3">
-        <v>-20.8333333333333</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1.98019801980198</v>
-      </c>
-      <c r="L4" s="3">
-        <v>27.5862068965517</v>
-      </c>
-      <c r="M4" s="3">
-        <v>28.9473684210526</v>
-      </c>
-      <c r="N4" s="3">
-        <v>9.09090909090909</v>
-      </c>
-      <c r="O4" s="3">
-        <v>57.8125</v>
-      </c>
-      <c r="P4" s="3">
-        <v>5.45454545454544</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>-11.6279069767442</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1.58730158730159</v>
-      </c>
-      <c r="T4" s="3">
-        <v>27.9069767441861</v>
-      </c>
-      <c r="U4" s="3">
-        <v>13.1578947368421</v>
-      </c>
-      <c r="V4" s="3">
-        <v>-4.34782608695653</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
-        <v>-9.41938284</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>-16.47882232</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>-24.18796139</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>-33.15519885</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>-32.00135762</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>-22.6267221</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>-13.94744326</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>16.24827513</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>23.25973607</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>20.6307938</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>30.36320644</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>47.31065073</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>32.18010203</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>37.66251696</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>52.46915648</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>21.29662605</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>26.88940363</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>28.92037932</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>3.69050993</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>5.2653963</v>
-      </c>
-      <c r="AR4" s="5">
-        <v>11.6934</v>
-      </c>
-      <c r="AS4" s="5">
-        <v>10.429</v>
-      </c>
-      <c r="AT4" s="5">
-        <v>11.0054</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>0.7552</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>8.6483</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>9.215</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>10.2959</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>11.6474</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>11.1445</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>10.3922</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>10.2257</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>12.3023</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>9.541</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>8.9404</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>10.3925</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>11.3477</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>13.0956</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>14.9172</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>14.2846</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>13.6513</v>
-      </c>
-      <c r="BL4" s="7">
-        <f>(D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4)/12</f>
-        <v>-2.38886626200077</v>
-      </c>
-      <c r="BM4" s="7">
-        <f>(D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4)/20</f>
-        <v>0.173229515758265</v>
-      </c>
-      <c r="BN4" s="9">
-        <f t="shared" ref="BN4:BT4" si="3">(D4+E4)/2</f>
-        <v>17.629407351838</v>
-      </c>
-      <c r="BO4" s="9">
+        <v>4.65580252042042</v>
+      </c>
+      <c r="BN6" s="15">
+        <f t="shared" ref="BN6:BT6" si="18">(D6+E6)/2</f>
+        <v>29.3953934740883</v>
+      </c>
+      <c r="BO6" s="15">
+        <f t="shared" si="18"/>
+        <v>31.6666666666667</v>
+      </c>
+      <c r="BP6" s="15">
+        <f t="shared" si="18"/>
+        <v>18.9615206305053</v>
+      </c>
+      <c r="BQ6" s="15">
+        <f t="shared" si="18"/>
+        <v>-5.68901700390327</v>
+      </c>
+      <c r="BR6" s="15">
+        <f t="shared" si="18"/>
+        <v>-21.6768170258332</v>
+      </c>
+      <c r="BS6" s="15">
+        <f t="shared" si="18"/>
+        <v>-29.5752989992678</v>
+      </c>
+      <c r="BT6" s="15">
+        <f t="shared" si="18"/>
+        <v>-22.4119780923252</v>
+      </c>
+      <c r="BU6" s="15">
         <f t="shared" si="3"/>
-        <v>7.47028862478778</v>
-      </c>
-      <c r="BP4" s="9">
-        <f t="shared" si="3"/>
-        <v>-44.9412365866122</v>
-      </c>
-      <c r="BQ4" s="7">
-        <f t="shared" si="3"/>
-        <v>-68.5187614799265</v>
-      </c>
-      <c r="BR4" s="7">
-        <f t="shared" si="3"/>
-        <v>-39.3132928847215</v>
-      </c>
-      <c r="BS4" s="7">
-        <f t="shared" si="3"/>
-        <v>-28.7840136054422</v>
-      </c>
-      <c r="BT4" s="7">
-        <f t="shared" si="3"/>
-        <v>-9.42656765676567</v>
-      </c>
-      <c r="BU4" s="7">
-        <f>STDEV(D4:W4)</f>
-        <v>32.062735373037</v>
-      </c>
-      <c r="BV4" s="11">
-        <f>(X4+Y4+Z4+AA4+AB4+AC4+AD4+AE4+AF4+AG4+AH4+AI4)/12</f>
-        <v>-1.16701885083333</v>
-      </c>
-      <c r="BW4" s="11">
-        <f>(X4+Y4+Z4+AA4+AB4+AC4+AD4+AE4+AF4+AG4+AH4+AI4+AJ4+AK4+AL4+AM4+AN4+AO4+AP4+AQ4)/20</f>
-        <v>9.7184932245</v>
-      </c>
-      <c r="BX4" s="12">
-        <f t="shared" ref="BX4:CD4" si="4">(X4+Y4)/2</f>
-        <v>-12.94910258</v>
-      </c>
-      <c r="BY4" s="12">
+        <v>16.7739009169122</v>
+      </c>
+      <c r="BV6" s="22">
         <f t="shared" si="4"/>
-        <v>-20.333391855</v>
-      </c>
-      <c r="BZ4" s="12">
-        <f t="shared" si="4"/>
-        <v>-28.67158012</v>
-      </c>
-      <c r="CA4" s="11">
-        <f t="shared" si="4"/>
-        <v>-32.578278235</v>
-      </c>
-      <c r="CB4" s="11">
-        <f t="shared" si="4"/>
-        <v>-27.31403986</v>
-      </c>
-      <c r="CC4" s="11">
-        <f t="shared" si="4"/>
-        <v>-18.28708268</v>
-      </c>
-      <c r="CD4" s="11">
-        <f t="shared" si="4"/>
-        <v>1.150415935</v>
-      </c>
-      <c r="CE4" s="11">
-        <f>STDEV(X4:AQ4)</f>
-        <v>26.6936167118331</v>
-      </c>
-      <c r="CF4" s="14">
-        <f>(AR4+AS4+AT4+AU4+AV4+AW4+AX4+AY4+AZ4+BA4+BB4+BC4)/12</f>
-        <v>9.81285833333333</v>
-      </c>
-      <c r="CG4" s="14">
-        <f>(AR4+AS4+AT4+AU4+AV4+AW4+AX4+AY4+AZ4+BA4+BB4+BC4+BD4+BE4+BF4+BG4+BH4+BI4+BJ4+BK4)/20</f>
-        <v>10.69623</v>
-      </c>
-      <c r="CH4" s="16">
-        <f t="shared" ref="CH4:CN4" si="5">(AR4+AS4)/2</f>
-        <v>11.0612</v>
-      </c>
-      <c r="CI4" s="16">
+        <v>3.82303241416667</v>
+      </c>
+      <c r="BW6" s="22">
         <f t="shared" si="5"/>
-        <v>10.7172</v>
-      </c>
-      <c r="CJ4" s="16">
-        <f t="shared" si="5"/>
-        <v>5.8803</v>
-      </c>
-      <c r="CK4" s="14">
-        <f t="shared" si="5"/>
-        <v>4.70175</v>
-      </c>
-      <c r="CL4" s="14">
-        <f t="shared" si="5"/>
-        <v>8.93165</v>
-      </c>
-      <c r="CM4" s="14">
-        <f t="shared" si="5"/>
-        <v>9.75545</v>
-      </c>
-      <c r="CN4" s="14">
-        <f t="shared" si="5"/>
-        <v>10.97165</v>
-      </c>
-      <c r="CO4" s="14">
-        <f>STDEV(AR4:BK4)</f>
-        <v>2.90778694635085</v>
+        <v>6.2602177815</v>
+      </c>
+      <c r="BX6" s="22">
+        <f t="shared" ref="BX6:CD6" si="19">(X6+Y6)/2</f>
+        <v>13.427471465</v>
+      </c>
+      <c r="BY6" s="22">
+        <f t="shared" si="19"/>
+        <v>18.51733237</v>
+      </c>
+      <c r="BZ6" s="22">
+        <f t="shared" si="19"/>
+        <v>11.079918975</v>
+      </c>
+      <c r="CA6" s="22">
+        <f t="shared" si="19"/>
+        <v>-0.77122179</v>
+      </c>
+      <c r="CB6" s="22">
+        <f t="shared" si="19"/>
+        <v>-1.55884778</v>
+      </c>
+      <c r="CC6" s="22">
+        <f t="shared" si="19"/>
+        <v>-1.53340605</v>
+      </c>
+      <c r="CD6" s="22">
+        <f t="shared" si="19"/>
+        <v>-3.357070755</v>
+      </c>
+      <c r="CE6" s="22">
+        <f t="shared" si="7"/>
+        <v>7.76320984167835</v>
+      </c>
+      <c r="CF6" s="25">
+        <f t="shared" si="8"/>
+        <v>13.0907083333333</v>
+      </c>
+      <c r="CG6" s="25">
+        <f t="shared" si="9"/>
+        <v>13.443245</v>
+      </c>
+      <c r="CH6" s="25">
+        <f t="shared" ref="CH6:CN6" si="20">(AR6+AS6)/2</f>
+        <v>13.2979</v>
+      </c>
+      <c r="CI6" s="25">
+        <f t="shared" si="20"/>
+        <v>13.29905</v>
+      </c>
+      <c r="CJ6" s="25">
+        <f t="shared" si="20"/>
+        <v>12.8724</v>
+      </c>
+      <c r="CK6" s="25">
+        <f t="shared" si="20"/>
+        <v>12.5361</v>
+      </c>
+      <c r="CL6" s="25">
+        <f t="shared" si="20"/>
+        <v>12.4027</v>
+      </c>
+      <c r="CM6" s="25">
+        <f t="shared" si="20"/>
+        <v>12.07715</v>
+      </c>
+      <c r="CN6" s="25">
+        <f t="shared" si="20"/>
+        <v>11.79015</v>
+      </c>
+      <c r="CO6" s="25">
+        <f t="shared" si="11"/>
+        <v>1.00121921227387</v>
+      </c>
+      <c r="CP6" s="31">
+        <f>(BN6+BO6+BP6)/3</f>
+        <v>26.6745269237534</v>
+      </c>
+      <c r="CQ6" s="32">
+        <v>35606</v>
+      </c>
+      <c r="CR6" s="35">
+        <v>13.71</v>
+      </c>
+      <c r="CS6" s="35">
+        <v>13.71</v>
+      </c>
+      <c r="CT6" s="36">
+        <v>36.8</v>
+      </c>
+      <c r="CU6" s="29">
+        <v>35.36</v>
+      </c>
+      <c r="CV6" s="38">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="25">
     <mergeCell ref="I1:W1"/>
     <mergeCell ref="X1:AQ1"/>
     <mergeCell ref="AR1:BK1"/>
@@ -3451,6 +4307,13 @@
     <mergeCell ref="CF1:CF2"/>
     <mergeCell ref="CG1:CG2"/>
     <mergeCell ref="CO1:CO2"/>
+    <mergeCell ref="CP1:CP2"/>
+    <mergeCell ref="CQ1:CQ2"/>
+    <mergeCell ref="CR1:CR2"/>
+    <mergeCell ref="CS1:CS2"/>
+    <mergeCell ref="CT1:CT2"/>
+    <mergeCell ref="CU1:CU2"/>
+    <mergeCell ref="CV1:CV2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/历史牛股档案库/历史牛股档案库.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/历史牛股档案库/历史牛股档案库.xlsx
@@ -2505,11 +2505,11 @@
   <dimension ref="A1:CV6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BI3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CT3" sqref="CT3"/>
+      <selection pane="bottomRight" activeCell="BS5" sqref="BS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
